--- a/data/excel/Register_SubAgent.xlsx
+++ b/data/excel/Register_SubAgent.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF9985-A16D-49CC-BD17-F5AA49E6F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782742C-1C62-44C8-9688-081BCA2BF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1305" windowWidth="25410" windowHeight="8895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="20490" windowHeight="8850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="214">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -73,9 +74,6 @@
     <t>Piyush_ql</t>
   </si>
   <si>
-    <t>Password@@12</t>
-  </si>
-  <si>
     <t>Shubhman</t>
   </si>
   <si>
@@ -553,12 +551,6 @@
     <t>T2357</t>
   </si>
   <si>
-    <t>Rohit17 B2SA</t>
-  </si>
-  <si>
-    <t>Rohit17@quadlabs.com</t>
-  </si>
-  <si>
     <t>Ankit1 B2SA</t>
   </si>
   <si>
@@ -653,6 +645,42 @@
   </si>
   <si>
     <t>Gell</t>
+  </si>
+  <si>
+    <t>Ankit21 B2SA</t>
+  </si>
+  <si>
+    <t>Ankit31 B2SA</t>
+  </si>
+  <si>
+    <t>Ankit41 B2SA</t>
+  </si>
+  <si>
+    <t>Ankit51 B2SA</t>
+  </si>
+  <si>
+    <t>Ankit21@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Ankit31@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Ankit41@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Ankit51@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AL2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,105 +1140,105 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1225,34 +1253,34 @@
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q2" s="3">
         <v>122018</v>
@@ -1264,25 +1292,25 @@
         <v>8888888801</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X2" s="14">
         <v>1</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="3">
         <v>1000010</v>
@@ -1294,7 +1322,7 @@
         <v>100000</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="3">
         <v>100000</v>
@@ -1303,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="3">
         <v>40</v>
@@ -1315,18 +1343,18 @@
         <v>6</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1341,34 +1369,34 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q3" s="3">
         <v>122019</v>
@@ -1380,25 +1408,25 @@
         <v>8888888802</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="14">
         <v>2</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="3">
         <v>1000011</v>
@@ -1410,7 +1438,7 @@
         <v>100001</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE3" s="3">
         <v>100001</v>
@@ -1419,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH3" s="3">
         <v>41</v>
@@ -1431,18 +1459,18 @@
         <v>3</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1457,34 +1485,34 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q4" s="3">
         <v>122020</v>
@@ -1496,25 +1524,25 @@
         <v>8888888803</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X4" s="14">
         <v>1</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="3">
         <v>1000012</v>
@@ -1526,7 +1554,7 @@
         <v>100002</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE4" s="3">
         <v>100002</v>
@@ -1535,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH4" s="3">
         <v>42</v>
@@ -1547,18 +1575,18 @@
         <v>3</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1573,34 +1601,34 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q5" s="3">
         <v>122021</v>
@@ -1612,25 +1640,25 @@
         <v>8888888804</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="W5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X5" s="14">
         <v>2</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="3">
         <v>1000013</v>
@@ -1642,7 +1670,7 @@
         <v>100003</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE5" s="3">
         <v>100003</v>
@@ -1651,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH5" s="3">
         <v>43</v>
@@ -1663,18 +1691,18 @@
         <v>3</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -1689,34 +1717,34 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q6" s="3">
         <v>122022</v>
@@ -1728,25 +1756,25 @@
         <v>8888888805</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X6" s="14">
         <v>1</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="3">
         <v>1000014</v>
@@ -1758,7 +1786,7 @@
         <v>100004</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE6" s="3">
         <v>100004</v>
@@ -1767,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH6" s="3">
         <v>44</v>
@@ -1779,18 +1807,18 @@
         <v>3</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1805,34 +1833,34 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q7" s="3">
         <v>122023</v>
@@ -1844,25 +1872,25 @@
         <v>8888888806</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X7" s="14">
         <v>2</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="3">
         <v>1000015</v>
@@ -1874,7 +1902,7 @@
         <v>100005</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE7" s="3">
         <v>100005</v>
@@ -1883,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH7" s="3">
         <v>45</v>
@@ -1895,18 +1923,18 @@
         <v>3</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1921,34 +1949,34 @@
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q8" s="3">
         <v>122024</v>
@@ -1960,25 +1988,25 @@
         <v>8888888807</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X8" s="14">
         <v>1</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="3">
         <v>1000016</v>
@@ -1990,7 +2018,7 @@
         <v>100006</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE8" s="3">
         <v>100006</v>
@@ -1999,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH8" s="3">
         <v>46</v>
@@ -2011,18 +2039,18 @@
         <v>3</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -2037,34 +2065,34 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q9" s="3">
         <v>122025</v>
@@ -2076,25 +2104,25 @@
         <v>8888888808</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X9" s="14">
         <v>2</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="3">
         <v>1000017</v>
@@ -2106,7 +2134,7 @@
         <v>100007</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE9" s="3">
         <v>100007</v>
@@ -2115,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH9" s="3">
         <v>47</v>
@@ -2127,18 +2155,18 @@
         <v>3</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -2153,34 +2181,34 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q10" s="3">
         <v>122026</v>
@@ -2192,25 +2220,25 @@
         <v>8888888809</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X10" s="14">
         <v>2</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="3">
         <v>1000018</v>
@@ -2222,7 +2250,7 @@
         <v>100008</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE10" s="3">
         <v>100008</v>
@@ -2231,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH10" s="3">
         <v>48</v>
@@ -2243,18 +2271,18 @@
         <v>3</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -2269,34 +2297,34 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q11" s="3">
         <v>122027</v>
@@ -2308,25 +2336,25 @@
         <v>8888888810</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X11" s="14">
         <v>1</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA11" s="3">
         <v>1000019</v>
@@ -2338,7 +2366,7 @@
         <v>100002</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE11" s="3">
         <v>100002</v>
@@ -2347,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH11" s="3">
         <v>40</v>
@@ -2359,18 +2387,18 @@
         <v>3</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -2385,34 +2413,34 @@
         <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q12" s="3">
         <v>122028</v>
@@ -2424,25 +2452,25 @@
         <v>8888888811</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X12" s="14">
         <v>2</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA12" s="3">
         <v>1000020</v>
@@ -2454,7 +2482,7 @@
         <v>100003</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE12" s="3">
         <v>100010</v>
@@ -2473,18 +2501,18 @@
         <v>3</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -2499,34 +2527,34 @@
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q13" s="3">
         <v>122029</v>
@@ -2538,25 +2566,25 @@
         <v>8888888812</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X13" s="14">
         <v>1</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="3">
         <v>1000021</v>
@@ -2568,7 +2596,7 @@
         <v>100004</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE13" s="3">
         <v>100011</v>
@@ -2577,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH13" s="3">
         <v>51</v>
@@ -2589,18 +2617,18 @@
         <v>3</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -2615,34 +2643,34 @@
         <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="Q14" s="3">
         <v>122030</v>
@@ -2654,25 +2682,25 @@
         <v>8888888813</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X14" s="14">
         <v>2</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="3">
         <v>1000022</v>
@@ -2684,7 +2712,7 @@
         <v>100005</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE14" s="3">
         <v>100012</v>
@@ -2693,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH14" s="3">
         <v>52</v>
@@ -2705,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2716,9 +2744,6 @@
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{F77F215F-5C66-458E-8596-F550385B6F9A}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{ECAF82EA-D163-4A6F-9002-FF2D3C55D57E}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{9FEF6CB5-F639-41AD-B90F-D6D2FA7A2CCD}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
@@ -2743,6 +2768,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X14 AJ2:AJ14 AF2:AF14" xr:uid="{97A1CECD-9DB2-4A18-8913-34078D3DA9FE}">
       <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{2B16B2B2-FF1A-4327-BE4C-A57FAD5F7A66}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2769,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8638204A-26BC-402D-8986-E2B5B21C8D10}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,105 +2830,105 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2912,140 +2940,140 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>122018</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8888888801</v>
+      </c>
+      <c r="S2" s="3">
+        <v>8888888801</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>122023</v>
-      </c>
-      <c r="R2" s="3">
-        <v>8888888806</v>
-      </c>
-      <c r="S2" s="3">
-        <v>8888888806</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="X2" s="14">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="AA2" s="3">
-        <v>1000001</v>
+        <v>1000010</v>
       </c>
       <c r="AB2" s="3">
-        <v>100001</v>
+        <v>100010</v>
       </c>
       <c r="AC2" s="3">
-        <v>100001</v>
+        <v>100000</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="3">
-        <v>100005</v>
+        <v>100000</v>
       </c>
       <c r="AF2" s="14">
         <v>1</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AJ2 AF2" xr:uid="{8EE45215-23D0-4629-AE60-E18067601FEB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2 AJ2 AF2" xr:uid="{0DBF6705-F493-4A07-A742-3E41BFB3D787}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{13AB4906-40F2-438B-AA91-97FCB2E77175}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2" xr:uid="{E05948FB-3BEC-4291-B0D4-25FD609FCD0A}">
       <formula1>"Select,Next Day,2-3 Days,Weekly,Fortnightly,Monthly"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{58C27CFA-8769-4940-B8C1-9F2739E55C29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{18FFAF42-48BE-4CF3-9032-B4FB66343E43}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{322D5709-6DA5-4EEB-9A67-159594D7C81A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{36AAB5B3-EA36-4453-A89E-7F1C80B3D4D0}">
       <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{E66C7EC5-2EE9-42DB-BA5D-FE33C5902600}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{ED9F5A54-9EE5-461D-BE7D-C930F1A9F0F1}">
       <formula1>"Credit Agent,Cash Agent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{156A1FC3-EF9A-43F2-8072-93F8074DDFA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{91204E85-DA53-41FE-8032-4D56CF98AB41}">
       <formula1>"Delhi travels,laxmi travel,QA Branch,Airtel,QLABS Agency"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{FE387A7C-D916-4E2B-A8B0-D3901538D9CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{885584BC-56FC-469A-A6C5-852EBB73B784}">
       <formula1>"UAE Dirhams,Indian Rupee,Russian Ruble,U.S. Dollars"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{8852B42D-4C9F-4BD5-8F1E-4C048CABDE7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{90E97038-50F6-42AC-BE2B-7A951D743F2C}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{AFA63BF9-986A-4908-B65A-E22252D41662}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{024876C3-26D0-45A9-8047-F8E1DC6AEB20}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{AAEB2D7B-9956-4C5F-8165-75A1337BF430}">
-      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{28DBD387-A4A7-45FC-889F-179A8647F7AF}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{16E15CF0-882B-4229-839A-8BD1284EB9AB}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{96513B28-F122-4FB3-B1A7-7F4EF0B78809}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3055,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1547D04C-D9E2-4376-9FD3-358FA4A6D007}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:AO14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,87 +3117,87 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -3184,31 +3212,31 @@
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="P2">
         <v>122018</v>
@@ -3220,22 +3248,22 @@
         <v>8888888801</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y2">
         <v>1000000</v>
@@ -3247,7 +3275,7 @@
         <v>100000</v>
       </c>
       <c r="AB2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC2">
         <v>40</v>
@@ -3256,15 +3284,15 @@
         <v>2</v>
       </c>
       <c r="AE2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -3279,34 +3307,34 @@
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q3">
         <v>122019</v>
@@ -3318,25 +3346,25 @@
         <v>8888888802</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X3" s="12">
         <v>2</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA3">
         <v>1000001</v>
@@ -3348,7 +3376,7 @@
         <v>100001</v>
       </c>
       <c r="AD3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE3">
         <v>100001</v>
@@ -3357,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="AG3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH3">
         <v>41</v>
@@ -3369,18 +3397,18 @@
         <v>3</v>
       </c>
       <c r="AK3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -3395,34 +3423,34 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q4">
         <v>122020</v>
@@ -3434,25 +3462,25 @@
         <v>8888888803</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X4" s="12">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4">
         <v>1000002</v>
@@ -3464,7 +3492,7 @@
         <v>100002</v>
       </c>
       <c r="AD4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE4">
         <v>100002</v>
@@ -3473,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="AG4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH4">
         <v>42</v>
@@ -3485,18 +3513,18 @@
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -3511,34 +3539,34 @@
         <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q5">
         <v>122021</v>
@@ -3550,25 +3578,25 @@
         <v>8888888804</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X5" s="12">
         <v>2</v>
       </c>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5">
         <v>1000002</v>
@@ -3580,7 +3608,7 @@
         <v>100002</v>
       </c>
       <c r="AD5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE5">
         <v>100003</v>
@@ -3589,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="AG5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH5">
         <v>43</v>
@@ -3601,18 +3629,18 @@
         <v>3</v>
       </c>
       <c r="AK5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -3627,34 +3655,34 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q6">
         <v>122022</v>
@@ -3666,25 +3694,25 @@
         <v>8888888805</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X6" s="12">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA6">
         <v>1000000</v>
@@ -3696,7 +3724,7 @@
         <v>100000</v>
       </c>
       <c r="AD6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE6">
         <v>100004</v>
@@ -3705,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="AG6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH6">
         <v>44</v>
@@ -3717,18 +3745,18 @@
         <v>3</v>
       </c>
       <c r="AK6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -3743,34 +3771,34 @@
         <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q7">
         <v>122023</v>
@@ -3782,25 +3810,25 @@
         <v>8888888806</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X7" s="12">
         <v>2</v>
       </c>
       <c r="Y7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA7">
         <v>1000001</v>
@@ -3812,7 +3840,7 @@
         <v>100001</v>
       </c>
       <c r="AD7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE7">
         <v>100005</v>
@@ -3821,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="AG7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH7">
         <v>45</v>
@@ -3833,18 +3861,18 @@
         <v>3</v>
       </c>
       <c r="AK7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -3859,34 +3887,34 @@
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q8">
         <v>122024</v>
@@ -3898,25 +3926,25 @@
         <v>8888888807</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X8" s="12">
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8">
         <v>1000002</v>
@@ -3928,7 +3956,7 @@
         <v>100002</v>
       </c>
       <c r="AD8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE8">
         <v>100006</v>
@@ -3937,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="AG8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH8">
         <v>46</v>
@@ -3949,18 +3977,18 @@
         <v>3</v>
       </c>
       <c r="AK8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -3975,34 +4003,34 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q9">
         <v>122025</v>
@@ -4014,25 +4042,25 @@
         <v>8888888808</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X9" s="12">
         <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9">
         <v>1000002</v>
@@ -4044,7 +4072,7 @@
         <v>100002</v>
       </c>
       <c r="AD9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE9">
         <v>100007</v>
@@ -4053,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="AG9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH9">
         <v>47</v>
@@ -4065,18 +4093,18 @@
         <v>3</v>
       </c>
       <c r="AK9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -4091,34 +4119,34 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q10">
         <v>122026</v>
@@ -4130,25 +4158,25 @@
         <v>8888888809</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X10" s="12">
         <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA10">
         <v>1000000</v>
@@ -4160,7 +4188,7 @@
         <v>100000</v>
       </c>
       <c r="AD10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE10">
         <v>100008</v>
@@ -4169,7 +4197,7 @@
         <v>2</v>
       </c>
       <c r="AG10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH10">
         <v>48</v>
@@ -4181,18 +4209,18 @@
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -4207,34 +4235,34 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q11">
         <v>122027</v>
@@ -4246,25 +4274,25 @@
         <v>8888888810</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X11" s="12">
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA11">
         <v>1000000</v>
@@ -4276,7 +4304,7 @@
         <v>100000</v>
       </c>
       <c r="AD11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE11">
         <v>100009</v>
@@ -4285,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="AG11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH11">
         <v>49</v>
@@ -4297,18 +4325,18 @@
         <v>3</v>
       </c>
       <c r="AK11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -4323,34 +4351,34 @@
         <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q12">
         <v>122028</v>
@@ -4362,25 +4390,25 @@
         <v>8888888811</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X12" s="12">
         <v>2</v>
       </c>
       <c r="Y12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA12">
         <v>1000002</v>
@@ -4392,7 +4420,7 @@
         <v>100002</v>
       </c>
       <c r="AD12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE12">
         <v>100010</v>
@@ -4410,18 +4438,18 @@
         <v>3</v>
       </c>
       <c r="AK12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -4436,34 +4464,34 @@
         <v>10</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q13">
         <v>122029</v>
@@ -4475,25 +4503,25 @@
         <v>8888888812</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X13" s="12">
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA13">
         <v>1000002</v>
@@ -4505,7 +4533,7 @@
         <v>100002</v>
       </c>
       <c r="AD13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE13">
         <v>100011</v>
@@ -4514,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="AG13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH13">
         <v>51</v>
@@ -4526,18 +4554,18 @@
         <v>3</v>
       </c>
       <c r="AK13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -4552,34 +4580,34 @@
         <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="Q14">
         <v>122030</v>
@@ -4591,25 +4619,25 @@
         <v>8888888813</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X14" s="12">
         <v>2</v>
       </c>
       <c r="Y14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA14">
         <v>1000000</v>
@@ -4621,7 +4649,7 @@
         <v>100000</v>
       </c>
       <c r="AD14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE14">
         <v>100012</v>
@@ -4630,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="AG14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH14">
         <v>52</v>
@@ -4642,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="AK14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4671,9 +4699,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{80FB3D79-9353-4B8C-B5F0-6622C56AC128}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{02B2B201-3E19-431A-817F-528E97BD61AD}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{0FFAB0D5-CA17-4FCF-B8AE-55D210CDC691}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
@@ -4688,6 +4713,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J14" xr:uid="{6F944B89-7E3B-4532-9D55-1BB039E885AB}">
       <formula1>"Delhi travels,laxmi travel,QA Branch,Airtel,QLABS Agency"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14" xr:uid="{8C24088D-8D86-4E4F-BD80-E32D8BEECBCF}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4708,4 +4736,758 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53C666C-0BEE-4915-A864-7AA99618F939}">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AL2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="38" max="38" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>122018</v>
+      </c>
+      <c r="R2" s="3">
+        <v>8888888801</v>
+      </c>
+      <c r="S2" s="3">
+        <v>8888888801</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1000010</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>100010</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>122019</v>
+      </c>
+      <c r="R3" s="3">
+        <v>8888888802</v>
+      </c>
+      <c r="S3" s="3">
+        <v>8888888802</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X3" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1000011</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>100011</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>100001</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>100001</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>122020</v>
+      </c>
+      <c r="R4" s="3">
+        <v>8888888803</v>
+      </c>
+      <c r="S4" s="3">
+        <v>8888888803</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1000012</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>100012</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>100002</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>100002</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>122021</v>
+      </c>
+      <c r="R5" s="3">
+        <v>8888888804</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8888888804</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1000013</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>100013</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>100003</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>100003</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>122022</v>
+      </c>
+      <c r="R6" s="3">
+        <v>8888888805</v>
+      </c>
+      <c r="S6" s="3">
+        <v>8888888805</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1000014</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>100014</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>100004</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>100004</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X6 AJ2:AJ6 AF2:AF6" xr:uid="{11B5F86D-BB89-49A8-9823-73C82B71A9D6}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD6" xr:uid="{3BD63638-CC4E-4745-86DB-9F8C7ADD36C9}">
+      <formula1>"Select,Next Day,2-3 Days,Weekly,Fortnightly,Monthly"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{FA758093-1CC4-429D-AF1C-E2ADB3CA5871}">
+      <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{F9C33E73-B2DB-4ACA-A29B-B1B35F8E1770}">
+      <formula1>"Mr,Mrs,Miss,Ms,Mstr"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z6" xr:uid="{8A7B14E2-2106-4387-B92C-A565A1CF2187}">
+      <formula1>"Credit Agent,Cash Agent"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{749519D4-8498-4518-9F0D-94E403297D01}">
+      <formula1>"Delhi travels,laxmi travel,QA Branch,Airtel,QLABS Agency"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{EF538145-7F9B-4039-A91C-3DBA76692EEB}">
+      <formula1>"UAE Dirhams,Indian Rupee,Russian Ruble,U.S. Dollars"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{465A9720-CD86-442B-A8D5-44001FC2D725}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{13BE39A7-A06D-4E26-A510-73599EC00BB9}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{65875322-24EB-474E-AB61-2A22EE6D73FA}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{7DFD725A-8402-4BD2-B5F6-85017D6672B1}"/>
+    <hyperlink ref="I3:I6" r:id="rId2" display="Ankit1@quadlabs.com" xr:uid="{36049167-8149-4946-A5EA-6B7BCC09193A}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{9110701C-728C-4CC1-8CAF-332A820FB3D0}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{39571410-4AB0-4032-9297-AB810A72DA89}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{7919E560-9DE7-470C-91C6-AD26474468A6}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{3676F9DF-E1E5-4140-9471-28B232776390}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>